--- a/array/record.xlsx
+++ b/array/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\someIdeaPrac\leetcode\array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F060D1-E0B1-4CA6-BAE3-EDF79EE97622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5B601-5F64-4A96-99E6-9003A77FED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>题号</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>第一次用到双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15三数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次用到双指针，注意体会双指针的使用场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -417,6 +429,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
